--- a/biology/Botanique/Inule_à_feuilles_de_saule/Inule_à_feuilles_de_saule.xlsx
+++ b/biology/Botanique/Inule_à_feuilles_de_saule/Inule_à_feuilles_de_saule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inule_%C3%A0_feuilles_de_saule</t>
+          <t>Inule_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inula salicina
 L'Inule à feuilles de saule, également appelée Inule saulière (Inula salicina), est une espèce de plantes à fleurs du genre Inula et de la famille des Astéracées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inule_%C3%A0_feuilles_de_saule</t>
+          <t>Inule_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace, rhizomateuse[1], au port érigé, glabre ou peu velue, atteignant jusqu'à 75 cm de haut, aux feuilles fortement réticulées. Les feuilles inférieures sont linéaires, lancéolées à ovales, les supérieures cordées et engainantes. Les capitules jaune doré, de 2,5 à 3 cm de diamètre, sont généralement solitaires. Elle fleurit en fin de printemps et en été.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace, rhizomateuse, au port érigé, glabre ou peu velue, atteignant jusqu'à 75 cm de haut, aux feuilles fortement réticulées. Les feuilles inférieures sont linéaires, lancéolées à ovales, les supérieures cordées et engainantes. Les capitules jaune doré, de 2,5 à 3 cm de diamètre, sont généralement solitaires. Elle fleurit en fin de printemps et en été.
 Une confusion est possible avec la Buphtalme à feuilles de saule (Buphtalmum salicifolium) chez qui les ligules sont plus larges.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inule_%C3%A0_feuilles_de_saule</t>
+          <t>Inule_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse dans les prairies, taillis, tourbières et les sols marneux[1]...
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse dans les prairies, taillis, tourbières et les sols marneux...
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inule_%C3%A0_feuilles_de_saule</t>
+          <t>Inule_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve presque partout en Europe (sauf en Bulgarie et en Islande), à des altitudes variant de 0 à 1 500 m.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Inule_%C3%A0_feuilles_de_saule</t>
+          <t>Inule_à_feuilles_de_saule</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Basse-Normandie, dans le Limousin, dans le Nord-Pas-de-Calais (sur liste rouge) et en Picardie.
 </t>
